--- a/Team-Data/2013-14/11-24-2013-14.xlsx
+++ b/Team-Data/2013-14/11-24-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>2.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -774,22 +841,22 @@
         <v>11</v>
       </c>
       <c r="AN2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO2" t="n">
         <v>16</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -798,13 +865,13 @@
         <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -932,10 +999,10 @@
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
         <v>18</v>
@@ -944,7 +1011,7 @@
         <v>20</v>
       </c>
       <c r="AJ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
@@ -956,19 +1023,19 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
         <v>24</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS3" t="n">
         <v>20</v>
@@ -980,25 +1047,25 @@
         <v>30</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>18</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY3" t="n">
         <v>16</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA3" t="n">
         <v>24</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>0.231</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="n">
         <v>48.8</v>
@@ -1048,76 +1115,76 @@
         <v>34.6</v>
       </c>
       <c r="J4" t="n">
-        <v>80.2</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="M4" t="n">
-        <v>17.9</v>
+        <v>17.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.361</v>
+        <v>0.338</v>
       </c>
       <c r="O4" t="n">
-        <v>19.7</v>
+        <v>20.3</v>
       </c>
       <c r="P4" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="S4" t="n">
-        <v>31.6</v>
+        <v>32</v>
       </c>
       <c r="T4" t="n">
-        <v>41.9</v>
+        <v>42.5</v>
       </c>
       <c r="U4" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="V4" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-7.6</v>
+        <v>-7.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
@@ -1129,52 +1196,52 @@
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP4" t="n">
         <v>5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
         <v>20</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>22</v>
       </c>
       <c r="AX4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY4" t="n">
         <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
@@ -1326,7 +1393,7 @@
         <v>8</v>
       </c>
       <c r="AP5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ5" t="n">
         <v>30</v>
@@ -1341,7 +1408,7 @@
         <v>15</v>
       </c>
       <c r="AU5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV5" t="n">
         <v>4</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -1394,94 +1461,94 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.545</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.421</v>
+        <v>0.423</v>
       </c>
       <c r="L6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M6" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="N6" t="n">
         <v>0.343</v>
       </c>
       <c r="O6" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="P6" t="n">
         <v>23.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.832</v>
       </c>
       <c r="R6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="S6" t="n">
-        <v>33.8</v>
+        <v>34.4</v>
       </c>
       <c r="T6" t="n">
-        <v>46.8</v>
+        <v>47.5</v>
       </c>
       <c r="U6" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V6" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="X6" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.5</v>
+        <v>93.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.6</v>
+        <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>18</v>
@@ -1490,10 +1557,10 @@
         <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1502,10 +1569,10 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>16</v>
@@ -1517,10 +1584,10 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>16</v>
@@ -1529,25 +1596,25 @@
         <v>23</v>
       </c>
       <c r="AW6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
         <v>16</v>
       </c>
       <c r="BB6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
         <v>26</v>
@@ -1675,19 +1742,19 @@
         <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
         <v>24</v>
@@ -1696,7 +1763,7 @@
         <v>13</v>
       </c>
       <c r="AR7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS7" t="n">
         <v>23</v>
@@ -1705,28 +1772,28 @@
         <v>22</v>
       </c>
       <c r="AU7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV7" t="n">
         <v>20</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA7" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB7" t="n">
         <v>26</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>25</v>
       </c>
       <c r="BC7" t="n">
         <v>28</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>3.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
         <v>18</v>
@@ -1866,13 +1933,13 @@
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -1902,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>22</v>
@@ -1911,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
@@ -2045,13 +2112,13 @@
         <v>14</v>
       </c>
       <c r="AM9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO9" t="n">
         <v>14</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>6</v>
@@ -2072,28 +2139,28 @@
         <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>6</v>
       </c>
       <c r="BB9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.385</v>
+        <v>0.333</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,91 +2207,91 @@
         <v>37.7</v>
       </c>
       <c r="J10" t="n">
-        <v>84</v>
+        <v>84.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L10" t="n">
         <v>5.8</v>
       </c>
       <c r="M10" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="N10" t="n">
         <v>0.285</v>
       </c>
       <c r="O10" t="n">
-        <v>17.2</v>
+        <v>16.3</v>
       </c>
       <c r="P10" t="n">
-        <v>24.8</v>
+        <v>23.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R10" t="n">
         <v>13.8</v>
       </c>
       <c r="S10" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="T10" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U10" t="n">
         <v>19.8</v>
       </c>
       <c r="V10" t="n">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="W10" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.9</v>
+        <v>20.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.2</v>
+        <v>-3.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM10" t="n">
         <v>18</v>
@@ -2233,49 +2300,49 @@
         <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU10" t="n">
         <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ10" t="n">
         <v>11</v>
       </c>
       <c r="BA10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BB10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC10" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>4.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>9</v>
@@ -2400,13 +2467,13 @@
         <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM11" t="n">
         <v>10</v>
@@ -2421,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR11" t="n">
         <v>27</v>
@@ -2433,22 +2500,22 @@
         <v>11</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW11" t="n">
         <v>15</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY11" t="n">
         <v>8</v>
       </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA11" t="n">
         <v>17</v>
@@ -2457,7 +2524,7 @@
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -2564,22 +2631,22 @@
         <v>4.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
         <v>4</v>
       </c>
       <c r="AI12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ12" t="n">
         <v>29</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2603,10 +2670,10 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS12" t="n">
         <v>1</v>
@@ -2630,7 +2697,7 @@
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2767,22 +2834,22 @@
         <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
         <v>9</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2791,7 +2858,7 @@
         <v>25</v>
       </c>
       <c r="AS13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -2850,88 +2917,88 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.643</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.8</v>
+        <v>39.2</v>
       </c>
       <c r="J14" t="n">
         <v>82.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.481</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O14" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P14" t="n">
-        <v>27.9</v>
+        <v>28.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.704</v>
+        <v>0.695</v>
       </c>
       <c r="R14" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="S14" t="n">
-        <v>32.5</v>
+        <v>32.1</v>
       </c>
       <c r="T14" t="n">
         <v>43.4</v>
       </c>
       <c r="U14" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="V14" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="W14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2943,49 +3010,49 @@
         <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>9</v>
       </c>
       <c r="AM14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX14" t="n">
         <v>23</v>
@@ -2994,7 +3061,7 @@
         <v>3</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -3032,100 +3099,100 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.462</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
         <v>86.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.434</v>
+        <v>0.432</v>
       </c>
       <c r="L15" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.403</v>
+        <v>0.41</v>
       </c>
       <c r="O15" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="P15" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.717</v>
+        <v>0.713</v>
       </c>
       <c r="R15" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S15" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="T15" t="n">
         <v>44.9</v>
       </c>
       <c r="U15" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="W15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X15" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AB15" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-2.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
         <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>4</v>
@@ -3134,49 +3201,49 @@
         <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
         <v>28</v>
       </c>
       <c r="AP15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT15" t="n">
         <v>7</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX15" t="n">
         <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
         <v>30</v>
@@ -3185,7 +3252,7 @@
         <v>15</v>
       </c>
       <c r="BC15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -3292,28 +3359,28 @@
         <v>-2.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3325,13 +3392,13 @@
         <v>27</v>
       </c>
       <c r="AO16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
@@ -3340,7 +3407,7 @@
         <v>16</v>
       </c>
       <c r="AT16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
         <v>12</v>
@@ -3349,7 +3416,7 @@
         <v>8</v>
       </c>
       <c r="AW16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX16" t="n">
         <v>28</v>
@@ -3367,7 +3434,7 @@
         <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
@@ -3507,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="n">
         <v>7</v>
@@ -3525,16 +3592,16 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV17" t="n">
         <v>17</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>2</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -3656,25 +3723,25 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3683,7 +3750,7 @@
         <v>16</v>
       </c>
       <c r="AM18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN18" t="n">
         <v>10</v>
@@ -3695,13 +3762,13 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT18" t="n">
         <v>29</v>
@@ -3716,19 +3783,19 @@
         <v>21</v>
       </c>
       <c r="AX18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA18" t="n">
         <v>24</v>
       </c>
       <c r="BB18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
@@ -3859,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM19" t="n">
         <v>6</v>
@@ -3877,7 +3944,7 @@
         <v>9</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR19" t="n">
         <v>5</v>
@@ -3907,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="BA19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
         <v>14</v>
@@ -4044,7 +4111,7 @@
         <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
@@ -4053,22 +4120,22 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP20" t="n">
         <v>11</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>12</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU20" t="n">
         <v>13</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-5.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG21" t="n">
         <v>27</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4232,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
         <v>12</v>
@@ -4253,7 +4320,7 @@
         <v>28</v>
       </c>
       <c r="AU21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
@@ -4268,13 +4335,13 @@
         <v>14</v>
       </c>
       <c r="AZ21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA21" t="n">
         <v>28</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -4306,88 +4373,88 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>0.75</v>
+        <v>0.727</v>
       </c>
       <c r="H22" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J22" t="n">
-        <v>81.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.453</v>
+        <v>0.448</v>
       </c>
       <c r="L22" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M22" t="n">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.32</v>
+        <v>0.315</v>
       </c>
       <c r="O22" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="P22" t="n">
-        <v>29.1</v>
+        <v>29.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R22" t="n">
-        <v>11.9</v>
+        <v>12.5</v>
       </c>
       <c r="S22" t="n">
-        <v>35.1</v>
+        <v>34.5</v>
       </c>
       <c r="T22" t="n">
-        <v>47</v>
+        <v>47.1</v>
       </c>
       <c r="U22" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V22" t="n">
         <v>16.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.5</v>
+        <v>104.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
         <v>4</v>
@@ -4399,22 +4466,22 @@
         <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM22" t="n">
         <v>20</v>
       </c>
-      <c r="AK22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>23</v>
-      </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
@@ -4423,16 +4490,16 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>17</v>
@@ -4441,7 +4508,7 @@
         <v>22</v>
       </c>
       <c r="AW22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX22" t="n">
         <v>6</v>
@@ -4450,16 +4517,16 @@
         <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -4488,115 +4555,115 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.308</v>
+        <v>0.333</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J23" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L23" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M23" t="n">
         <v>20.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.389</v>
+        <v>0.398</v>
       </c>
       <c r="O23" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="P23" t="n">
-        <v>21.3</v>
+        <v>21.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.74</v>
+        <v>0.734</v>
       </c>
       <c r="R23" t="n">
-        <v>10.2</v>
+        <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U23" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V23" t="n">
-        <v>17.8</v>
+        <v>18.3</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
         <v>4.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.6</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.8</v>
+        <v>-2.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG23" t="n">
         <v>22</v>
       </c>
-      <c r="AG23" t="n">
-        <v>24</v>
-      </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>16</v>
       </c>
       <c r="AK23" t="n">
         <v>10</v>
       </c>
       <c r="AL23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM23" t="n">
         <v>16</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO23" t="n">
         <v>21</v>
@@ -4605,43 +4672,43 @@
         <v>20</v>
       </c>
       <c r="AQ23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS23" t="n">
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
         <v>18</v>
       </c>
       <c r="AV23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AW23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY23" t="n">
         <v>28</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -4751,10 +4818,10 @@
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG24" t="n">
         <v>20</v>
@@ -4763,16 +4830,16 @@
         <v>1</v>
       </c>
       <c r="AI24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ24" t="n">
         <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>12</v>
@@ -4784,16 +4851,16 @@
         <v>15</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR24" t="n">
         <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
         <v>5</v>
@@ -4805,10 +4872,10 @@
         <v>27</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4820,7 +4887,7 @@
         <v>20</v>
       </c>
       <c r="BB24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC24" t="n">
         <v>25</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -4852,160 +4919,160 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>0.538</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>37.7</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
-        <v>81.8</v>
+        <v>80.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.461</v>
+        <v>0.458</v>
       </c>
       <c r="L25" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M25" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O25" t="n">
-        <v>15.5</v>
+        <v>16.7</v>
       </c>
       <c r="P25" t="n">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.72</v>
+        <v>0.725</v>
       </c>
       <c r="R25" t="n">
         <v>9.9</v>
       </c>
       <c r="S25" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="T25" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U25" t="n">
-        <v>18.6</v>
+        <v>18.1</v>
       </c>
       <c r="V25" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="W25" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI25" t="n">
         <v>17</v>
       </c>
-      <c r="W25" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="X25" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="AJ25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN25" t="n">
         <v>12</v>
       </c>
-      <c r="AF25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>11</v>
-      </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
         <v>26</v>
       </c>
       <c r="AS25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU25" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA25" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BB25" t="n">
         <v>14</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5136,7 +5203,7 @@
         <v>11</v>
       </c>
       <c r="AL26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM26" t="n">
         <v>7</v>
@@ -5151,13 +5218,13 @@
         <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT26" t="n">
         <v>8</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
@@ -5184,7 +5251,7 @@
         <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -5216,94 +5283,94 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" t="n">
-        <v>0.308</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J27" t="n">
         <v>83.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.425</v>
+        <v>0.426</v>
       </c>
       <c r="L27" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="N27" t="n">
         <v>0.327</v>
       </c>
       <c r="O27" t="n">
-        <v>17.6</v>
+        <v>18.4</v>
       </c>
       <c r="P27" t="n">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.771</v>
+        <v>0.784</v>
       </c>
       <c r="R27" t="n">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="S27" t="n">
-        <v>30.3</v>
+        <v>29.9</v>
       </c>
       <c r="T27" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U27" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="V27" t="n">
         <v>12.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X27" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.8</v>
+        <v>-2.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG27" t="n">
         <v>22</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>18</v>
@@ -5324,25 +5391,25 @@
         <v>13</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS27" t="n">
         <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU27" t="n">
         <v>19</v>
@@ -5351,25 +5418,25 @@
         <v>1</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
         <v>30</v>
       </c>
       <c r="AY27" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB27" t="n">
         <v>21</v>
       </c>
       <c r="BC27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>11.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,19 +5561,19 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM28" t="n">
         <v>19</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5533,13 +5600,13 @@
         <v>5</v>
       </c>
       <c r="AW28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>1.2</v>
       </c>
       <c r="AD29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE29" t="n">
         <v>14</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>16</v>
       </c>
       <c r="AF29" t="n">
         <v>16</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5679,19 +5746,19 @@
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM29" t="n">
         <v>17</v>
       </c>
       <c r="AN29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP29" t="n">
         <v>8</v>
@@ -5718,10 +5785,10 @@
         <v>23</v>
       </c>
       <c r="AX29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ29" t="n">
         <v>28</v>
@@ -5730,10 +5797,10 @@
         <v>6</v>
       </c>
       <c r="BB29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -5762,85 +5829,85 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" t="n">
-        <v>0.067</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>33.5</v>
+        <v>33.9</v>
       </c>
       <c r="J30" t="n">
-        <v>79.90000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.419</v>
+        <v>0.42</v>
       </c>
       <c r="L30" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M30" t="n">
         <v>18.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.293</v>
+        <v>0.298</v>
       </c>
       <c r="O30" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="P30" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.713</v>
       </c>
       <c r="R30" t="n">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="S30" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="T30" t="n">
-        <v>40.3</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="V30" t="n">
         <v>17.8</v>
       </c>
       <c r="W30" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>88.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-11.8</v>
+        <v>-11.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>30</v>
@@ -5855,10 +5922,10 @@
         <v>18</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK30" t="n">
         <v>28</v>
@@ -5873,34 +5940,34 @@
         <v>29</v>
       </c>
       <c r="AO30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP30" t="n">
         <v>19</v>
       </c>
-      <c r="AP30" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ30" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS30" t="n">
         <v>29</v>
       </c>
       <c r="AT30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
@@ -5909,10 +5976,10 @@
         <v>23</v>
       </c>
       <c r="BA30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC30" t="n">
         <v>30</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>21</v>
@@ -6037,7 +6104,7 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
         <v>5</v>
@@ -6046,22 +6113,22 @@
         <v>19</v>
       </c>
       <c r="AL31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM31" t="n">
         <v>9</v>
       </c>
       <c r="AN31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
         <v>13</v>
@@ -6070,34 +6137,34 @@
         <v>22</v>
       </c>
       <c r="AT31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
         <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA31" t="n">
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-24-2013-14</t>
+          <t>2013-11-24</t>
         </is>
       </c>
     </row>
